--- a/Final report/Forgot Password Page/Testing Spreadsheet v1.0 ForgotPasswordPage.xlsx
+++ b/Final report/Forgot Password Page/Testing Spreadsheet v1.0 ForgotPasswordPage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonnie\Documents\Software Development\CSC7056 Software Testing &amp; Verification\Group Project\Software-Testing-And-Verification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonnie\Documents\Software Development\CSC7056 Software Testing &amp; Verification\Group Project\Software-Testing-And-Verification\Final report\Forgot Password Page\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="16560" windowHeight="6345" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="16560" windowHeight="6345" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="227">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -508,12 +508,6 @@
     <t>Go to email check for spelling or grammar mistakes.</t>
   </si>
   <si>
-    <t>ForgotPassword_1</t>
-  </si>
-  <si>
-    <t>J Leathem</t>
-  </si>
-  <si>
     <t>Email subject reads 'Bike IT - account details'. Should read 'Pizza IT - account details'.</t>
   </si>
   <si>
@@ -559,81 +553,42 @@
     <t>While on the forgot password page enter an email address of an invalid format and click the send button.</t>
   </si>
   <si>
-    <t>ForgotPassword_Tconn_5</t>
-  </si>
-  <si>
-    <t>ForgotPassword_Tconn_4</t>
-  </si>
-  <si>
-    <t>ForgotPassword_Tconn_3</t>
-  </si>
-  <si>
-    <t>ForgotPassword_Tconn_2</t>
-  </si>
-  <si>
-    <t>ForgotPassword_Tconn_1</t>
-  </si>
-  <si>
     <t>4.1.1</t>
   </si>
   <si>
     <t>To show that the company logo is displayed in the header.</t>
   </si>
   <si>
-    <t>ForgotPassword_Tconn_6</t>
-  </si>
-  <si>
     <t>4.1.2</t>
   </si>
   <si>
-    <t>ForgotPassword_Tconn_7</t>
-  </si>
-  <si>
     <t>To show that the page has a title.</t>
   </si>
   <si>
     <t>4.1.4</t>
   </si>
   <si>
-    <t>ForgotPassword_Tconn_8</t>
-  </si>
-  <si>
     <t>4.1.5</t>
   </si>
   <si>
     <t>To show that the Forgot Password page exists within the system.</t>
   </si>
   <si>
-    <t>ForgotPassword_Tconn_9</t>
-  </si>
-  <si>
     <t>To show that a common navigation area is available on the page</t>
   </si>
   <si>
     <t>4.1.7</t>
   </si>
   <si>
-    <t>ForgotPassword_Tconn_10</t>
-  </si>
-  <si>
     <t>To show that the user can navigate directly to the Register and Login pages.</t>
   </si>
   <si>
     <t>4.1.9</t>
   </si>
   <si>
-    <t>Tcase_7</t>
-  </si>
-  <si>
     <t>On the forgot password page</t>
   </si>
   <si>
-    <t>Tcase_8</t>
-  </si>
-  <si>
-    <t>Tcase_9</t>
-  </si>
-  <si>
     <t>To show that the copyright and site version information is displayed in the footer.</t>
   </si>
   <si>
@@ -682,15 +637,6 @@
     <t>Title named 'Forgot password'</t>
   </si>
   <si>
-    <t>Tcase_10</t>
-  </si>
-  <si>
-    <t>Tcase_11</t>
-  </si>
-  <si>
-    <t>Tcase_12</t>
-  </si>
-  <si>
     <t>ForgotPassword_TProc_10</t>
   </si>
   <si>
@@ -718,9 +664,6 @@
     <t>Check that the user can navigate directly to the Register page</t>
   </si>
   <si>
-    <t>Tcase_13</t>
-  </si>
-  <si>
     <t>Check that the user can navigate directly to the Login page</t>
   </si>
   <si>
@@ -760,15 +703,6 @@
     <t>3.2.2</t>
   </si>
   <si>
-    <t>ForgotPassword_Tconn_11</t>
-  </si>
-  <si>
-    <t>ForgotPassword_Tconn_12</t>
-  </si>
-  <si>
-    <t>ForgotPassword_Tconn_13</t>
-  </si>
-  <si>
     <t>To show that the Forgot Password page displays and functions on the Amazon Kindle Fire 7 inch, iPad 4, iPhone 6, Google Nexus 10 and Galaxy S4.</t>
   </si>
   <si>
@@ -778,18 +712,6 @@
     <t>Check that the Forgot Password page displays and functions on the Amazon Kindle Fire 7 inch, iPad 4, iPhone 6, Google Nexus 10 and Galaxy S4.</t>
   </si>
   <si>
-    <t>Tcase_14</t>
-  </si>
-  <si>
-    <t>Tcase_15</t>
-  </si>
-  <si>
-    <t>Tcase_16</t>
-  </si>
-  <si>
-    <t>Tcase_17</t>
-  </si>
-  <si>
     <t>Username: jleathem03@qub.ac.uk</t>
   </si>
   <si>
@@ -838,9 +760,6 @@
     <t>To show that the website window can be resized or reshaped and that the contents of the page respond by scaling and shifting into place.</t>
   </si>
   <si>
-    <t>ForgotPassword_Tconn_14</t>
-  </si>
-  <si>
     <t>Check that the website window can be resized or reshaped and that the contents of the page respond by scaling and shifting into place.</t>
   </si>
   <si>
@@ -853,18 +772,9 @@
     <t>To show that the Forgot Password page display is consistent with other webpages on the website, with respect to title sizes, placement of image artefacts, navigation items and footers.</t>
   </si>
   <si>
-    <t>ForgotPassword_Tconn_15</t>
-  </si>
-  <si>
     <t>Check that the webpage display is consistent with other webpages on the website in title sizes, placement of image artefacts, navigation items and footers.</t>
   </si>
   <si>
-    <t>Tcase_18</t>
-  </si>
-  <si>
-    <t>ForgotPassword_2</t>
-  </si>
-  <si>
     <t>On Google Chrome and Firefox, the Pizza IT logo is in the same place for the Manage Account page, Login page, Schedule pae, Problem page, Forgot Password page and Order Receipt but not for Ordering Pizza and About.</t>
   </si>
   <si>
@@ -895,15 +805,9 @@
     <t xml:space="preserve">To show that page source code, image file names and information does not contain inflammatory or infringing content </t>
   </si>
   <si>
-    <t>ForgotPassword_Tconn_16</t>
-  </si>
-  <si>
     <t>Check that page source code, image file names and information do not contain inflammatory or infringing content.</t>
   </si>
   <si>
-    <t>Tcase_19</t>
-  </si>
-  <si>
     <t>The page source code should not display any inflammatory or derogatory comments.</t>
   </si>
   <si>
@@ -922,27 +826,12 @@
     <t>To show that images used are public domain or lawfully used.</t>
   </si>
   <si>
-    <t>ForgotPassword_Tconn_17</t>
-  </si>
-  <si>
-    <t>ForgotPassword_Tconn_18</t>
-  </si>
-  <si>
     <t>Check that images are stored on the server for the website natively and are not hotlinked to an unaffiliated website.</t>
   </si>
   <si>
     <t>Check that images used are public domain or lawfully used.</t>
   </si>
   <si>
-    <t>Tcase_20</t>
-  </si>
-  <si>
-    <t>Tcase_21</t>
-  </si>
-  <si>
-    <t>ForgotPassword_3</t>
-  </si>
-  <si>
     <t>All images should be hosted on the website server: http://lamp.eeecs.qub.ac.uk:8080</t>
   </si>
   <si>
@@ -976,7 +865,61 @@
     <t>Forgot Password page does not fit on Samsung Galaxy S4 and too small on iPhone 6 and Amazon Kindle Fire 7".</t>
   </si>
   <si>
-    <t>ForgotPassword_4</t>
+    <t>ForgotPassword_TConn_5</t>
+  </si>
+  <si>
+    <t>ForgotPassword_TConn_6</t>
+  </si>
+  <si>
+    <t>ForgotPassword_TConn_7</t>
+  </si>
+  <si>
+    <t>ForgotPassword_TConn_8</t>
+  </si>
+  <si>
+    <t>ForgotPassword_TConn_9</t>
+  </si>
+  <si>
+    <t>ForgotPassword_TConn_10</t>
+  </si>
+  <si>
+    <t>ForgotPassword_TConn_11</t>
+  </si>
+  <si>
+    <t>ForgotPassword_TConn_12</t>
+  </si>
+  <si>
+    <t>ForgotPassword_TConn_13</t>
+  </si>
+  <si>
+    <t>ForgotPassword_TConn_14</t>
+  </si>
+  <si>
+    <t>ForgotPassword_TConn_15</t>
+  </si>
+  <si>
+    <t>ForgotPassword_TConn_16</t>
+  </si>
+  <si>
+    <t>ForgotPassword_TConn_17</t>
+  </si>
+  <si>
+    <t>ForgotPassword_TConn_18</t>
+  </si>
+  <si>
+    <t>Jonathan Leathem</t>
+  </si>
+  <si>
+    <t>ForgotPassword_Defect_4</t>
+  </si>
+  <si>
+    <t>ForgotPassword_Defect_3</t>
+  </si>
+  <si>
+    <t>ForgotPassword_Defect_2</t>
+  </si>
+  <si>
+    <t>ForgotPassword_Defect_1</t>
   </si>
 </sst>
 </file>
@@ -1318,7 +1261,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1326,14 +1268,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1341,14 +1280,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1356,9 +1292,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1428,7 +1362,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1525,11 +1458,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="267949632"/>
-        <c:axId val="267956704"/>
+        <c:axId val="1760175632"/>
+        <c:axId val="1760182704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="267949632"/>
+        <c:axId val="1760175632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1539,7 +1472,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="267956704"/>
+        <c:crossAx val="1760182704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1547,7 +1480,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="267956704"/>
+        <c:axId val="1760182704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1558,7 +1491,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="267949632"/>
+        <c:crossAx val="1760175632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1987,8 +1920,8 @@
   </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2014,7 +1947,7 @@
     </row>
     <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>68</v>
@@ -2031,7 +1964,7 @@
     </row>
     <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>69</v>
@@ -2046,7 +1979,7 @@
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>71</v>
@@ -2063,7 +1996,7 @@
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>83</v>
@@ -2080,13 +2013,13 @@
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>106</v>
+        <v>208</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -2097,13 +2030,13 @@
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>113</v>
+        <v>209</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -2114,13 +2047,13 @@
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>115</v>
+        <v>210</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -2131,13 +2064,13 @@
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>6</v>
@@ -2145,13 +2078,13 @@
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>27</v>
@@ -2159,13 +2092,13 @@
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>6</v>
@@ -2173,13 +2106,13 @@
     </row>
     <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D12" s="34" t="s">
         <v>6</v>
@@ -2187,13 +2120,13 @@
     </row>
     <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>6</v>
@@ -2201,10 +2134,10 @@
     </row>
     <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="C14" s="34" t="s">
         <v>70</v>
@@ -2215,10 +2148,10 @@
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="C15" s="34" t="s">
         <v>70</v>
@@ -2229,10 +2162,10 @@
     </row>
     <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>70</v>
@@ -2243,10 +2176,10 @@
     </row>
     <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="C17" s="34" t="s">
         <v>70</v>
@@ -2257,10 +2190,10 @@
     </row>
     <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="C18" s="34" t="s">
         <v>70</v>
@@ -2271,10 +2204,10 @@
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="C19" s="34" t="s">
         <v>70</v>
@@ -2314,8 +2247,8 @@
   </sheetPr>
   <dimension ref="A1:Z161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K22" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2412,7 +2345,7 @@
         <v>24</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>90</v>
+        <v>222</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="4"/>
@@ -2430,13 +2363,13 @@
         <v>62</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>59</v>
@@ -2450,8 +2383,8 @@
       <c r="H3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>90</v>
+      <c r="I3" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="4"/>
@@ -2469,13 +2402,13 @@
         <v>63</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>59</v>
@@ -2489,8 +2422,8 @@
       <c r="H4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>90</v>
+      <c r="I4" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="4"/>
@@ -2506,13 +2439,13 @@
         <v>64</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>59</v>
@@ -2526,8 +2459,8 @@
       <c r="H5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>90</v>
+      <c r="I5" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="4"/>
@@ -2543,7 +2476,7 @@
         <v>65</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>78</v>
@@ -2563,8 +2496,8 @@
       <c r="H6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="14" t="s">
-        <v>90</v>
+      <c r="I6" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="4"/>
@@ -2582,10 +2515,10 @@
         <v>66</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>79</v>
@@ -2602,11 +2535,11 @@
       <c r="H7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>90</v>
+      <c r="I7" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>89</v>
+        <v>226</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>33</v>
@@ -2619,25 +2552,25 @@
       </c>
       <c r="N7" s="33"/>
       <c r="O7" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P7" s="10"/>
     </row>
     <row r="8" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>106</v>
+        <v>208</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>11</v>
@@ -2648,8 +2581,8 @@
       <c r="H8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="14" t="s">
-        <v>90</v>
+      <c r="I8" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="4"/>
@@ -2661,19 +2594,19 @@
     </row>
     <row r="9" spans="1:26" ht="57" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>113</v>
+        <v>209</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>11</v>
@@ -2684,8 +2617,8 @@
       <c r="H9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="14" t="s">
-        <v>90</v>
+      <c r="I9" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="4"/>
@@ -2700,19 +2633,19 @@
     </row>
     <row r="10" spans="1:26" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>115</v>
+        <v>210</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>11</v>
@@ -2723,8 +2656,8 @@
       <c r="H10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="14" t="s">
-        <v>90</v>
+      <c r="I10" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="4"/>
@@ -2743,19 +2676,19 @@
     </row>
     <row r="11" spans="1:26" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>6</v>
@@ -2766,8 +2699,8 @@
       <c r="H11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="14" t="s">
-        <v>90</v>
+      <c r="I11" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="4"/>
@@ -2786,19 +2719,19 @@
     </row>
     <row r="12" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>27</v>
@@ -2809,8 +2742,8 @@
       <c r="H12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="14" t="s">
-        <v>90</v>
+      <c r="I12" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="4"/>
@@ -2829,19 +2762,19 @@
     </row>
     <row r="13" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>6</v>
@@ -2852,8 +2785,8 @@
       <c r="H13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="14" t="s">
-        <v>90</v>
+      <c r="I13" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="4"/>
@@ -2865,19 +2798,19 @@
     </row>
     <row r="14" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>6</v>
@@ -2888,8 +2821,8 @@
       <c r="H14" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="14" t="s">
-        <v>90</v>
+      <c r="I14" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -2901,19 +2834,19 @@
     </row>
     <row r="15" spans="1:26" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>6</v>
@@ -2924,8 +2857,8 @@
       <c r="H15" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="9" t="s">
-        <v>90</v>
+      <c r="I15" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -2937,19 +2870,19 @@
     </row>
     <row r="16" spans="1:26" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>6</v>
@@ -2960,8 +2893,8 @@
       <c r="H16" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="9" t="s">
-        <v>90</v>
+      <c r="I16" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -2973,19 +2906,19 @@
     </row>
     <row r="17" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>11</v>
@@ -2996,11 +2929,11 @@
       <c r="H17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="9" t="s">
-        <v>90</v>
+      <c r="I17" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>33</v>
@@ -3013,25 +2946,25 @@
       </c>
       <c r="N17" s="33"/>
       <c r="O17" s="3" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="P17" s="10"/>
     </row>
     <row r="18" spans="1:21" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>11</v>
@@ -3042,8 +2975,8 @@
       <c r="H18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="9" t="s">
-        <v>90</v>
+      <c r="I18" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -3055,19 +2988,19 @@
     </row>
     <row r="19" spans="1:21" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>27</v>
@@ -3078,11 +3011,11 @@
       <c r="H19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="9" t="s">
-        <v>90</v>
+      <c r="I19" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>33</v>
@@ -3095,25 +3028,25 @@
       </c>
       <c r="N19" s="33"/>
       <c r="O19" s="3" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="P19" s="10"/>
     </row>
     <row r="20" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>27</v>
@@ -3124,8 +3057,8 @@
       <c r="H20" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="9" t="s">
-        <v>90</v>
+      <c r="I20" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -3137,19 +3070,19 @@
     </row>
     <row r="21" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>27</v>
@@ -3160,8 +3093,8 @@
       <c r="H21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="9" t="s">
-        <v>90</v>
+      <c r="I21" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -3173,19 +3106,19 @@
     </row>
     <row r="22" spans="1:21" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>11</v>
@@ -3196,11 +3129,11 @@
       <c r="H22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="9" t="s">
-        <v>90</v>
+      <c r="I22" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>33</v>
@@ -3213,7 +3146,7 @@
       </c>
       <c r="N22" s="33"/>
       <c r="O22" s="3" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="P22" s="10"/>
     </row>
@@ -5269,7 +5202,7 @@
   </sheetPr>
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -5343,7 +5276,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>82</v>
@@ -5368,7 +5301,7 @@
         <v>63</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>82</v>
@@ -5387,13 +5320,13 @@
     </row>
     <row r="5" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>82</v>
@@ -5412,7 +5345,7 @@
     </row>
     <row r="6" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>65</v>
@@ -5435,7 +5368,7 @@
     </row>
     <row r="7" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>66</v>
@@ -5458,16 +5391,16 @@
     </row>
     <row r="8" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
@@ -5481,16 +5414,16 @@
     </row>
     <row r="9" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
@@ -5504,16 +5437,16 @@
     </row>
     <row r="10" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
@@ -5527,16 +5460,16 @@
     </row>
     <row r="11" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="1"/>
@@ -5550,16 +5483,16 @@
     </row>
     <row r="12" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="1"/>
@@ -5573,16 +5506,16 @@
     </row>
     <row r="13" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="1"/>
@@ -5596,16 +5529,16 @@
     </row>
     <row r="14" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="1"/>
@@ -5619,16 +5552,16 @@
     </row>
     <row r="15" spans="1:13" ht="57" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="1"/>
@@ -5642,16 +5575,16 @@
     </row>
     <row r="16" spans="1:13" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="1"/>
@@ -5665,16 +5598,16 @@
     </row>
     <row r="17" spans="1:13" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="1"/>
@@ -5688,16 +5621,16 @@
     </row>
     <row r="18" spans="1:13" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="1"/>
@@ -5711,16 +5644,16 @@
     </row>
     <row r="19" spans="1:13" ht="57" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="1"/>
@@ -5732,18 +5665,18 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="1"/>
@@ -5757,16 +5690,16 @@
     </row>
     <row r="21" spans="1:13" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="1"/>
@@ -5780,16 +5713,16 @@
     </row>
     <row r="22" spans="1:13" ht="57" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="E22" s="35"/>
     </row>

--- a/Final report/Forgot Password Page/Testing Spreadsheet v1.0 ForgotPasswordPage.xlsx
+++ b/Final report/Forgot Password Page/Testing Spreadsheet v1.0 ForgotPasswordPage.xlsx
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="227">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -1106,7 +1106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1198,7 +1198,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1458,11 +1457,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1760175632"/>
-        <c:axId val="1760182704"/>
+        <c:axId val="-1859471376"/>
+        <c:axId val="-1859472464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1760175632"/>
+        <c:axId val="-1859471376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1472,7 +1471,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1760182704"/>
+        <c:crossAx val="-1859472464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1480,7 +1479,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1760182704"/>
+        <c:axId val="-1859472464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1491,7 +1490,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1760175632"/>
+        <c:crossAx val="-1859471376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5203,7 +5202,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5356,7 +5355,9 @@
       <c r="D6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -5379,7 +5380,9 @@
       <c r="D7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -5402,7 +5405,9 @@
       <c r="D8" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -5425,7 +5430,9 @@
       <c r="D9" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -5448,7 +5455,9 @@
       <c r="D10" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -5471,7 +5480,9 @@
       <c r="D11" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -5494,7 +5505,9 @@
       <c r="D12" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -5517,7 +5530,9 @@
       <c r="D13" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -5540,7 +5555,9 @@
       <c r="D14" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -5563,7 +5580,9 @@
       <c r="D15" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -5586,7 +5605,9 @@
       <c r="D16" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -5609,7 +5630,9 @@
       <c r="D17" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -5632,7 +5655,9 @@
       <c r="D18" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -5655,7 +5680,9 @@
       <c r="D19" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -5678,7 +5705,9 @@
       <c r="D20" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -5701,7 +5730,9 @@
       <c r="D21" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -5724,7 +5755,9 @@
       <c r="D22" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E22" s="35"/>
+      <c r="E22" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5824,6 +5857,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -5937,15 +5979,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
   <ds:schemaRefs>
@@ -5956,6 +5989,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5969,12 +6010,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>